--- a/tests/fileReaderTests/M(H)_Curve.xlsx
+++ b/tests/fileReaderTests/M(H)_Curve.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\magLabUtilities\tests\fileReaderTests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\magLabUtilities\tests\fileReaderTests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07197BB0-3EAB-43F7-9847-1D794C6059FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A983086-CD17-4603-A317-0D0295DEBB7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4260" yWindow="2790" windowWidth="21600" windowHeight="11385" xr2:uid="{E407D7F3-2030-45C9-ABFC-543EE10DD8CF}"/>
+    <workbookView xWindow="-23595" yWindow="765" windowWidth="21600" windowHeight="11385" xr2:uid="{E407D7F3-2030-45C9-ABFC-543EE10DD8CF}"/>
   </bookViews>
   <sheets>
     <sheet name="21k" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>M</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>t</t>
   </si>
 </sst>
 </file>
@@ -393,15 +396,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AB14B2E-711B-4E7F-B0FC-C7F510873540}">
-  <dimension ref="C3:E103"/>
+  <dimension ref="B3:E103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:B103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
       <c r="C3" t="s">
         <v>0</v>
       </c>
@@ -412,7 +418,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>0</v>
+      </c>
       <c r="C4">
         <v>-8.2850841152557493</v>
       </c>
@@ -420,7 +429,10 @@
         <v>-296.07285852171498</v>
       </c>
     </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>1</v>
+      </c>
       <c r="C5">
         <v>-1.0116799739664499</v>
       </c>
@@ -428,7 +440,10 @@
         <v>-298.87709008520898</v>
       </c>
     </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>2</v>
+      </c>
       <c r="C6">
         <v>-8.2850841152557493</v>
       </c>
@@ -436,7 +451,11 @@
         <v>-300.12610048996999</v>
       </c>
     </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <f>B6*2</f>
+        <v>4</v>
+      </c>
       <c r="C7">
         <v>-1.0116799739664499</v>
       </c>
@@ -444,7 +463,11 @@
         <v>-297.49290506336001</v>
       </c>
     </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <f t="shared" ref="B8:B71" si="0">B7*2</f>
+        <v>8</v>
+      </c>
       <c r="C8">
         <v>-8.2850841152557493</v>
       </c>
@@ -452,7 +475,11 @@
         <v>-292.52588001826302</v>
       </c>
     </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
       <c r="C9">
         <v>-1.0116799739664499</v>
       </c>
@@ -460,7 +487,11 @@
         <v>-280.56863141354597</v>
       </c>
     </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
       <c r="C10">
         <v>-10.7095521626077</v>
       </c>
@@ -468,7 +499,11 @@
         <v>-260.83805277747001</v>
       </c>
     </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
       <c r="C11">
         <v>-1.0116799739664499</v>
       </c>
@@ -476,7 +511,11 @@
         <v>-231.010171619499</v>
       </c>
     </row>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
       <c r="C12">
         <v>-10.7095521626077</v>
       </c>
@@ -484,7 +523,11 @@
         <v>-193.408491033601</v>
       </c>
     </row>
-    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>256</v>
+      </c>
       <c r="C13">
         <v>-5.86061606803153</v>
       </c>
@@ -492,7 +535,11 @@
         <v>-144.15456027180699</v>
       </c>
     </row>
-    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>512</v>
+      </c>
       <c r="C14">
         <v>-8.2850841152557493</v>
       </c>
@@ -500,7 +547,11 @@
         <v>-83.244154838351093</v>
       </c>
     </row>
-    <row r="15" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>1024</v>
+      </c>
       <c r="C15">
         <v>1.4127880728745199</v>
       </c>
@@ -508,7 +559,11 @@
         <v>-7.5730120837135404</v>
       </c>
     </row>
-    <row r="16" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>2048</v>
+      </c>
       <c r="C16">
         <v>-5.86061606803153</v>
       </c>
@@ -516,7 +571,11 @@
         <v>81.310491784175397</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>4096</v>
+      </c>
       <c r="C17">
         <v>-3.4361480209351001</v>
       </c>
@@ -524,7 +583,11 @@
         <v>188.84022457133801</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>8192</v>
+      </c>
       <c r="C18">
         <v>-3.4361480209351001</v>
       </c>
@@ -532,7 +595,11 @@
         <v>310.356506613048</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>16384</v>
+      </c>
       <c r="C19">
         <v>1.4127880728745199</v>
       </c>
@@ -540,7 +607,11 @@
         <v>448.96594751335903</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>32768</v>
+      </c>
       <c r="C20">
         <v>-8.2850841152557493</v>
       </c>
@@ -548,7 +619,11 @@
         <v>603.89529795232795</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>65536</v>
+      </c>
       <c r="C21">
         <v>-1.0116799739664499</v>
       </c>
@@ -556,7 +631,11 @@
         <v>778.24647367245905</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>131072</v>
+      </c>
       <c r="C22">
         <v>-8.2850841152557493</v>
       </c>
@@ -564,7 +643,11 @@
         <v>970.47156785371806</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>262144</v>
+      </c>
       <c r="C23">
         <v>-3.4361480209351001</v>
       </c>
@@ -572,7 +655,11 @@
         <v>1182.1194261411199</v>
       </c>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>524288</v>
+      </c>
       <c r="C24">
         <v>-5.86061606803153</v>
       </c>
@@ -580,7 +667,11 @@
         <v>1413.9708081036799</v>
       </c>
     </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>1048576</v>
+      </c>
       <c r="C25">
         <v>-3.4361480209351001</v>
       </c>
@@ -588,7 +679,11 @@
         <v>1666.0233668329799</v>
       </c>
     </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>2097152</v>
+      </c>
       <c r="C26">
         <v>-8.2850841152557493</v>
       </c>
@@ -596,7 +691,11 @@
         <v>1938.2794492949399</v>
       </c>
     </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>4194304</v>
+      </c>
       <c r="C27">
         <v>1.4127880728745199</v>
       </c>
@@ -604,7 +703,11 @@
         <v>2230.7348310318298</v>
       </c>
     </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>8388608</v>
+      </c>
       <c r="C28">
         <v>-3.4361480209351001</v>
       </c>
@@ -612,7 +715,11 @@
         <v>2544.1721491696699</v>
       </c>
     </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>16777216</v>
+      </c>
       <c r="C29">
         <v>-5.86061606803153</v>
       </c>
@@ -620,7 +727,11 @@
         <v>2877.8111135792001</v>
       </c>
     </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>33554432</v>
+      </c>
       <c r="C30">
         <v>-8.2850841152557493</v>
       </c>
@@ -628,7 +739,11 @@
         <v>3232.4291981275201</v>
       </c>
     </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>67108864</v>
+      </c>
       <c r="C31">
         <v>1.4127880728745199</v>
       </c>
@@ -636,7 +751,11 @@
         <v>3607.2470514582701</v>
       </c>
     </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>134217728</v>
+      </c>
       <c r="C32">
         <v>-5.86061606803153</v>
       </c>
@@ -644,7 +763,11 @@
         <v>4000.7162973454601</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>268435456</v>
+      </c>
       <c r="C33">
         <v>6.26172416617338</v>
       </c>
@@ -652,7 +775,11 @@
         <v>4415.1609083640296</v>
       </c>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>536870912</v>
+      </c>
       <c r="C34">
         <v>-3.4361480209351001</v>
       </c>
@@ -660,7 +787,11 @@
         <v>4848.2578507684402</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>1073741824</v>
+      </c>
       <c r="C35">
         <v>3.8372561195877601</v>
       </c>
@@ -668,7 +799,11 @@
         <v>5301.5536232975201</v>
       </c>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>2147483648</v>
+      </c>
       <c r="C36">
         <v>-3.4361480209351001</v>
       </c>
@@ -676,7 +811,11 @@
         <v>5773.5003191042997</v>
       </c>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>4294967296</v>
+      </c>
       <c r="C37">
         <v>-1.0116799739664499</v>
       </c>
@@ -684,7 +823,11 @@
         <v>6264.0932443408001</v>
       </c>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>8589934592</v>
+      </c>
       <c r="C38">
         <v>3.8372561195877601</v>
       </c>
@@ -692,7 +835,11 @@
         <v>6771.77979827742</v>
       </c>
     </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>17179869184</v>
+      </c>
       <c r="C39">
         <v>6.26172416617338</v>
       </c>
@@ -700,7 +847,11 @@
         <v>7297.3379241712801</v>
       </c>
     </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>34359738368</v>
+      </c>
       <c r="C40">
         <v>8.68619221263131</v>
       </c>
@@ -708,7 +859,11 @@
         <v>7840.7671526593504</v>
       </c>
     </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <f t="shared" si="0"/>
+        <v>68719476736</v>
+      </c>
       <c r="C41">
         <v>11.110660258961699</v>
       </c>
@@ -716,7 +871,11 @@
         <v>8398.9594659176691</v>
       </c>
     </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <f t="shared" si="0"/>
+        <v>137438953472</v>
+      </c>
       <c r="C42">
         <v>11.110660258961699</v>
       </c>
@@ -724,7 +883,11 @@
         <v>8972.6923378133797</v>
       </c>
     </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <f t="shared" si="0"/>
+        <v>274877906944</v>
+      </c>
       <c r="C43">
         <v>15.9595963512397</v>
       </c>
@@ -732,7 +895,11 @@
         <v>9562.7413646668701</v>
       </c>
     </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <f t="shared" si="0"/>
+        <v>549755813888</v>
+      </c>
       <c r="C44">
         <v>13.5351283051645</v>
       </c>
@@ -740,7 +907,11 @@
         <v>10167.5548845061</v>
       </c>
     </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <f t="shared" si="0"/>
+        <v>1099511627776</v>
+      </c>
       <c r="C45">
         <v>18.384064397187501</v>
       </c>
@@ -748,7 +919,11 @@
         <v>10787.130081023701</v>
       </c>
     </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <f t="shared" si="0"/>
+        <v>2199023255552</v>
+      </c>
       <c r="C46">
         <v>18.384064397187501</v>
       </c>
@@ -756,7 +931,11 @@
         <v>11420.692296707</v>
       </c>
     </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <f t="shared" si="0"/>
+        <v>4398046511104</v>
+      </c>
       <c r="C47">
         <v>28.081936579703999</v>
       </c>
@@ -764,7 +943,11 @@
         <v>12065.907701845001</v>
       </c>
     </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <f t="shared" si="0"/>
+        <v>8796093022208</v>
+      </c>
       <c r="C48">
         <v>23.233000488700601</v>
       </c>
@@ -772,7 +955,11 @@
         <v>12723.557994790401</v>
       </c>
     </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <f t="shared" si="0"/>
+        <v>17592186044416</v>
+      </c>
       <c r="C49">
         <v>28.081936579703999</v>
       </c>
@@ -780,7 +967,11 @@
         <v>13393.638481681501</v>
       </c>
     </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <f t="shared" si="0"/>
+        <v>35184372088832</v>
+      </c>
       <c r="C50">
         <v>30.506404625014699</v>
       </c>
@@ -788,7 +979,11 @@
         <v>14073.820496058899</v>
       </c>
     </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <f t="shared" si="0"/>
+        <v>70368744177664</v>
+      </c>
       <c r="C51">
         <v>42.628744849658801</v>
       </c>
@@ -796,7 +991,11 @@
         <v>14764.8786954638</v>
       </c>
     </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <f t="shared" si="0"/>
+        <v>140737488355328</v>
+      </c>
       <c r="C52">
         <v>40.204276804984502</v>
       </c>
@@ -804,7 +1003,11 @@
         <v>15466.040769309</v>
       </c>
     </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <f t="shared" si="0"/>
+        <v>281474976710656</v>
+      </c>
       <c r="C53">
         <v>49.902148982919002</v>
       </c>
@@ -812,7 +1015,11 @@
         <v>16175.747545398401</v>
       </c>
     </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <f t="shared" si="0"/>
+        <v>562949953421312</v>
+      </c>
       <c r="C54">
         <v>47.477680938626101</v>
       </c>
@@ -824,7 +1031,11 @@
         <v>35.735649077664867</v>
       </c>
     </row>
-    <row r="55" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <f t="shared" si="0"/>
+        <v>1125899906842624</v>
+      </c>
       <c r="C55">
         <v>59.600021158820297</v>
       </c>
@@ -832,11 +1043,15 @@
         <v>17619.250113750299</v>
       </c>
       <c r="E55">
-        <f t="shared" ref="E55:E59" si="0">ABS((D105-D5)/(C105-C5))</f>
+        <f t="shared" ref="E55:E59" si="1">ABS((D105-D5)/(C105-C5))</f>
         <v>295.42651606852957</v>
       </c>
     </row>
-    <row r="56" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <f t="shared" si="0"/>
+        <v>2251799813685248</v>
+      </c>
       <c r="C56">
         <v>59.600021158820297</v>
       </c>
@@ -844,11 +1059,15 @@
         <v>18353.0459060229</v>
       </c>
       <c r="E56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36.224870660918512</v>
       </c>
     </row>
-    <row r="57" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <f t="shared" si="0"/>
+        <v>4503599627370496</v>
+      </c>
       <c r="C57">
         <v>66.873425289413106</v>
       </c>
@@ -856,11 +1075,15 @@
         <v>19093.056325917201</v>
       </c>
       <c r="E57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>294.0583116388006</v>
       </c>
     </row>
-    <row r="58" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <f t="shared" si="0"/>
+        <v>9007199254740992</v>
+      </c>
       <c r="C58">
         <v>66.873425289413106</v>
       </c>
@@ -868,11 +1091,15 @@
         <v>19839.2841897609</v>
       </c>
       <c r="E58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35.307532904780068</v>
       </c>
     </row>
-    <row r="59" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <f t="shared" si="0"/>
+        <v>1.8014398509481984E+16</v>
+      </c>
       <c r="C59">
         <v>81.420233547174305</v>
       </c>
@@ -880,11 +1107,15 @@
         <v>20590.1712641224</v>
       </c>
       <c r="E59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>277.32943088072869</v>
       </c>
     </row>
-    <row r="60" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <f t="shared" si="0"/>
+        <v>3.6028797018963968E+16</v>
+      </c>
       <c r="C60">
         <v>76.571297461761006</v>
       </c>
@@ -896,7 +1127,11 @@
         <v>35.735649077664867</v>
       </c>
     </row>
-    <row r="61" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <f t="shared" si="0"/>
+        <v>7.2057594037927936E+16</v>
+      </c>
       <c r="C61">
         <v>88.693637674344302</v>
       </c>
@@ -904,11 +1139,15 @@
         <v>22106.712722341301</v>
       </c>
       <c r="E61">
-        <f t="shared" ref="E61:E103" si="1">ABS((D117-D5)/(C117-C5))</f>
+        <f t="shared" ref="E61:E103" si="2">ABS((D117-D5)/(C117-C5))</f>
         <v>295.42651606852957</v>
       </c>
     </row>
-    <row r="62" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <f t="shared" si="0"/>
+        <v>1.4411518807585587E+17</v>
+      </c>
       <c r="C62">
         <v>88.693637674344302</v>
       </c>
@@ -916,11 +1155,15 @@
         <v>22872.365698039899</v>
       </c>
       <c r="E62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>36.224870660918512</v>
       </c>
     </row>
-    <row r="63" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <f t="shared" si="0"/>
+        <v>2.8823037615171174E+17</v>
+      </c>
       <c r="C63">
         <v>105.664913966645</v>
       </c>
@@ -928,11 +1171,15 @@
         <v>23641.123405926199</v>
       </c>
       <c r="E63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>294.0583116388006</v>
       </c>
     </row>
-    <row r="64" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <f t="shared" si="0"/>
+        <v>5.7646075230342349E+17</v>
+      </c>
       <c r="C64">
         <v>100.815977883763</v>
       </c>
@@ -940,11 +1187,15 @@
         <v>24412.216351724401</v>
       </c>
       <c r="E64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35.307532904780068</v>
       </c>
     </row>
-    <row r="65" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <f t="shared" si="0"/>
+        <v>1.152921504606847E+18</v>
+      </c>
       <c r="C65">
         <v>112.938318090021</v>
       </c>
@@ -952,11 +1203,15 @@
         <v>25186.414029711799</v>
       </c>
       <c r="E65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>277.32943088072869</v>
       </c>
     </row>
-    <row r="66" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <f t="shared" si="0"/>
+        <v>2.305843009213694E+18</v>
+      </c>
       <c r="C66">
         <v>115.362786130893</v>
       </c>
@@ -964,11 +1219,15 @@
         <v>25962.944598675102</v>
       </c>
       <c r="E66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24.355645205051953</v>
       </c>
     </row>
-    <row r="67" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <f t="shared" si="0"/>
+        <v>4.6116860184273879E+18</v>
+      </c>
       <c r="C67">
         <v>129.909594373479</v>
       </c>
@@ -976,11 +1235,15 @@
         <v>26741.026829652401</v>
       </c>
       <c r="E67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>228.34312980792475</v>
       </c>
     </row>
-    <row r="68" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <f t="shared" si="0"/>
+        <v>9.2233720368547758E+18</v>
+      </c>
       <c r="C68">
         <v>127.485126333363</v>
       </c>
@@ -988,11 +1251,15 @@
         <v>27520.666355292899</v>
       </c>
       <c r="E68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18.059437789460972</v>
       </c>
     </row>
-    <row r="69" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <f t="shared" si="0"/>
+        <v>1.8446744073709552E+19</v>
+      </c>
       <c r="C69">
         <v>134.75853045333201</v>
       </c>
@@ -1000,11 +1267,15 @@
         <v>28302.635016811098</v>
       </c>
       <c r="E69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24.597168386125961</v>
       </c>
     </row>
-    <row r="70" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <f t="shared" si="0"/>
+        <v>3.6893488147419103E+19</v>
+      </c>
       <c r="C70">
         <v>142.03193457216599</v>
       </c>
@@ -1012,11 +1283,15 @@
         <v>29085.380682805098</v>
       </c>
       <c r="E70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10.047472503636913</v>
       </c>
     </row>
-    <row r="71" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <f t="shared" si="0"/>
+        <v>7.3786976294838206E+19</v>
+      </c>
       <c r="C71">
         <v>151.72980672885001</v>
       </c>
@@ -1024,11 +1299,15 @@
         <v>29867.348874935898</v>
       </c>
       <c r="E71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.360331269151474</v>
       </c>
     </row>
-    <row r="72" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <f t="shared" ref="B72:B103" si="3">B71*2</f>
+        <v>1.4757395258967641E+20</v>
+      </c>
       <c r="C72">
         <v>154.154274767706</v>
       </c>
@@ -1036,11 +1315,15 @@
         <v>30651.6494886566</v>
       </c>
       <c r="E72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13.874051949539504</v>
       </c>
     </row>
-    <row r="73" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <f t="shared" si="3"/>
+        <v>2.9514790517935283E+20</v>
+      </c>
       <c r="C73">
         <v>161.42767888352</v>
       </c>
@@ -1048,11 +1331,15 @@
         <v>31435.949163602501</v>
       </c>
       <c r="E73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>54.956952791558663</v>
       </c>
     </row>
-    <row r="74" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <f t="shared" si="3"/>
+        <v>5.9029581035870565E+20</v>
+      </c>
       <c r="C74">
         <v>161.42767888352</v>
       </c>
@@ -1060,11 +1347,15 @@
         <v>32220.250246710701</v>
       </c>
       <c r="E74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>90.321052737590961</v>
       </c>
     </row>
-    <row r="75" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <f t="shared" si="3"/>
+        <v>1.1805916207174113E+21</v>
+      </c>
       <c r="C75">
         <v>178.39895514935699</v>
       </c>
@@ -1072,11 +1363,15 @@
         <v>33002.994035155098</v>
       </c>
       <c r="E75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>317.78718700524803</v>
       </c>
     </row>
-    <row r="76" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B76">
+        <f t="shared" si="3"/>
+        <v>2.3611832414348226E+21</v>
+      </c>
       <c r="C76">
         <v>178.39895514935699</v>
       </c>
@@ -1084,11 +1379,15 @@
         <v>33786.518113787301</v>
       </c>
       <c r="E76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>72.889458881937557</v>
       </c>
     </row>
-    <row r="77" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <f t="shared" si="3"/>
+        <v>4.7223664828696452E+21</v>
+      </c>
       <c r="C77">
         <v>185.67235926140501</v>
       </c>
@@ -1096,11 +1395,15 @@
         <v>34569.2637797813</v>
       </c>
       <c r="E77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>769.26151915533308</v>
       </c>
     </row>
-    <row r="78" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B78">
+        <f t="shared" si="3"/>
+        <v>9.4447329657392904E+21</v>
+      </c>
       <c r="C78">
         <v>190.521295335476</v>
       </c>
@@ -1108,11 +1411,15 @@
         <v>35351.2329106869</v>
       </c>
       <c r="E78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>117.13478757164808</v>
       </c>
     </row>
-    <row r="79" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B79">
+        <f t="shared" si="3"/>
+        <v>1.8889465931478581E+22</v>
+      </c>
       <c r="C79">
         <v>202.64363551846299</v>
       </c>
@@ -1120,11 +1427,15 @@
         <v>36132.423628954399</v>
       </c>
       <c r="E79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>344.02459350963073</v>
       </c>
     </row>
-    <row r="80" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B80">
+        <f t="shared" si="3"/>
+        <v>3.7778931862957162E+22</v>
+      </c>
       <c r="C80">
         <v>205.068103554685</v>
       </c>
@@ -1132,11 +1443,15 @@
         <v>36913.616224771598</v>
       </c>
       <c r="E80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>241.26658216302607</v>
       </c>
     </row>
-    <row r="81" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B81">
+        <f t="shared" si="3"/>
+        <v>7.5557863725914323E+22</v>
+      </c>
       <c r="C81">
         <v>212.34150766260001</v>
       </c>
@@ -1144,11 +1459,15 @@
         <v>37694.030877338097</v>
       </c>
       <c r="E81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>484.85203683966876</v>
       </c>
     </row>
-    <row r="82" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B82">
+        <f t="shared" si="3"/>
+        <v>1.5111572745182865E+23</v>
+      </c>
       <c r="C82">
         <v>214.765975698321</v>
       </c>
@@ -1156,11 +1475,15 @@
         <v>38473.669464203798</v>
       </c>
       <c r="E82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>233.94807129669169</v>
       </c>
     </row>
-    <row r="83" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B83">
+        <f t="shared" si="3"/>
+        <v>3.0223145490365729E+23</v>
+      </c>
       <c r="C83">
         <v>231.737251944874</v>
       </c>
@@ -1168,11 +1491,15 @@
         <v>39252.528230269301</v>
       </c>
       <c r="E83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1578.959274828163</v>
       </c>
     </row>
-    <row r="84" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B84">
+        <f t="shared" si="3"/>
+        <v>6.0446290980731459E+23</v>
+      </c>
       <c r="C84">
         <v>229.31278391002701</v>
       </c>
@@ -1180,11 +1507,15 @@
         <v>40030.613746958603</v>
       </c>
       <c r="E84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>740.41401408467516</v>
       </c>
     </row>
-    <row r="85" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B85">
+        <f t="shared" si="3"/>
+        <v>1.2089258196146292E+24</v>
+      </c>
       <c r="C85">
         <v>236.58618801419399</v>
       </c>
@@ -1192,11 +1523,15 @@
         <v>40808.697386098102</v>
       </c>
       <c r="E85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>491.04242287377861</v>
       </c>
     </row>
-    <row r="86" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B86">
+        <f t="shared" si="3"/>
+        <v>2.4178516392292583E+24</v>
+      </c>
       <c r="C86">
         <v>236.58618801419399</v>
       </c>
@@ -1204,11 +1539,15 @@
         <v>41585.228424448796</v>
       </c>
       <c r="E86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>390.15043820442122</v>
       </c>
     </row>
-    <row r="87" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B87">
+        <f t="shared" si="3"/>
+        <v>4.8357032784585167E+24</v>
+      </c>
       <c r="C87">
         <v>255.98193228648901</v>
       </c>
@@ -1216,11 +1555,15 @@
         <v>42361.755707700198</v>
       </c>
       <c r="E87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2553.2824920575731</v>
       </c>
     </row>
-    <row r="88" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B88">
+        <f t="shared" si="3"/>
+        <v>9.6714065569170334E+24</v>
+      </c>
       <c r="C88">
         <v>248.70852818531301</v>
       </c>
@@ -1228,11 +1571,15 @@
         <v>43139.065158688703</v>
       </c>
       <c r="E88">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>682.64432457341047</v>
       </c>
     </row>
-    <row r="89" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B89">
+        <f t="shared" si="3"/>
+        <v>1.9342813113834067E+25</v>
+      </c>
       <c r="C89">
         <v>260.83086835331699</v>
       </c>
@@ -1240,11 +1587,15 @@
         <v>43914.816845626898</v>
       </c>
       <c r="E89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>705.10306605571725</v>
       </c>
     </row>
-    <row r="90" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B90">
+        <f t="shared" si="3"/>
+        <v>3.8685626227668134E+25</v>
+      </c>
       <c r="C90">
         <v>260.83086835331699</v>
       </c>
@@ -1252,11 +1603,15 @@
         <v>44691.3478839776</v>
       </c>
       <c r="E90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1410.9572175674359</v>
       </c>
     </row>
-    <row r="91" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B91">
+        <f t="shared" si="3"/>
+        <v>7.7371252455336267E+25</v>
+      </c>
       <c r="C91">
         <v>275.377676550817</v>
       </c>
@@ -1264,11 +1619,15 @@
         <v>45467.876106003801</v>
       </c>
       <c r="E91">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1381.6001481462413</v>
       </c>
     </row>
-    <row r="92" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B92">
+        <f t="shared" si="3"/>
+        <v>1.5474250491067253E+26</v>
+      </c>
       <c r="C92">
         <v>270.52874048548102</v>
       </c>
@@ -1276,11 +1635,15 @@
         <v>46244.408083129398</v>
       </c>
       <c r="E92">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1680.2245665578521</v>
       </c>
     </row>
-    <row r="93" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B93">
+        <f t="shared" si="3"/>
+        <v>3.0948500982134507E+26</v>
+      </c>
       <c r="C93">
         <v>280.22661261565599</v>
       </c>
@@ -1288,11 +1651,15 @@
         <v>47020.160239454897</v>
       </c>
       <c r="E93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6191.7734911579209</v>
       </c>
     </row>
-    <row r="94" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B94">
+        <f t="shared" si="3"/>
+        <v>6.1897001964269014E+26</v>
+      </c>
       <c r="C94">
         <v>285.07554867999897</v>
       </c>
@@ -1300,11 +1667,15 @@
         <v>47798.244347981898</v>
       </c>
       <c r="E94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1764.7453251061381</v>
       </c>
     </row>
-    <row r="95" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B95">
+        <f t="shared" si="3"/>
+        <v>1.2379400392853803E+27</v>
+      </c>
       <c r="C95">
         <v>292.34895277558201</v>
       </c>
@@ -1312,11 +1683,15 @@
         <v>48577.104991597102</v>
       </c>
       <c r="E95">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1165.3879555398521</v>
       </c>
     </row>
-    <row r="96" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B96">
+        <f t="shared" si="3"/>
+        <v>2.4758800785707605E+27</v>
+      </c>
       <c r="C96">
         <v>292.34895277558201</v>
       </c>
@@ -1324,11 +1699,15 @@
         <v>49355.967043374498</v>
       </c>
       <c r="E96">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>902.67023348360203</v>
       </c>
     </row>
-    <row r="97" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B97">
+        <f t="shared" si="3"/>
+        <v>4.9517601571415211E+27</v>
+      </c>
       <c r="C97">
         <v>299.62235687004897</v>
       </c>
@@ -1336,11 +1715,15 @@
         <v>50136.381695941098</v>
       </c>
       <c r="E97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>755.93702535753346</v>
       </c>
     </row>
-    <row r="98" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B98">
+        <f t="shared" si="3"/>
+        <v>9.9035203142830422E+27</v>
+      </c>
       <c r="C98">
         <v>304.47129293240801</v>
       </c>
@@ -1348,11 +1731,15 @@
         <v>50917.573822370898</v>
       </c>
       <c r="E98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>807.57507912962546</v>
       </c>
     </row>
-    <row r="99" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B99">
+        <f t="shared" si="3"/>
+        <v>1.9807040628566084E+28</v>
+      </c>
       <c r="C99">
         <v>316.593633086137</v>
       </c>
@@ -1360,11 +1747,15 @@
         <v>51700.318549590098</v>
       </c>
       <c r="E99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>599.18441257595225</v>
       </c>
     </row>
-    <row r="100" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B100">
+        <f t="shared" si="3"/>
+        <v>3.9614081257132169E+28</v>
+      </c>
       <c r="C100">
         <v>314.16916505563802</v>
       </c>
@@ -1372,11 +1763,15 @@
         <v>52485.397106561599</v>
       </c>
       <c r="E100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>751.19752508194108</v>
       </c>
     </row>
-    <row r="101" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B101">
+        <f t="shared" si="3"/>
+        <v>7.9228162514264338E+28</v>
+      </c>
       <c r="C101">
         <v>316.593633086137</v>
       </c>
@@ -1384,11 +1779,15 @@
         <v>53272.805738186798</v>
       </c>
       <c r="E101">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>586.76524668146715</v>
       </c>
     </row>
-    <row r="102" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B102">
+        <f t="shared" si="3"/>
+        <v>1.5845632502852868E+29</v>
+      </c>
       <c r="C102">
         <v>323.86703717688903</v>
       </c>
@@ -1396,11 +1795,15 @@
         <v>54062.544444465799</v>
       </c>
       <c r="E102">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>621.22782263829549</v>
       </c>
     </row>
-    <row r="103" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B103">
+        <f t="shared" si="3"/>
+        <v>3.1691265005705735E+29</v>
+      </c>
       <c r="C103">
         <v>333.56490929616302</v>
       </c>
@@ -1408,7 +1811,7 @@
         <v>54855.390699263196</v>
       </c>
       <c r="E103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>429.66793503000576</v>
       </c>
     </row>
